--- a/genshin_wish_history.xlsx
+++ b/genshin_wish_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C219"/>
+  <dimension ref="A1:D328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>End Date</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>5-Star Character</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +471,11 @@
           <t>October 18, 2020</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Venti</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,29 +493,60 @@
           <t>October 18, 2020</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Aquila Favonia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Beginners' Wish</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>September 28, 2020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>October 18, 2020</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Amos' Bow</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wanderlust Invocation</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+          <t>Sparkling Steps</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>October 20, 2020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>November 10, 2020</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Klee</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sparkling Steps</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -516,6 +557,11 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>November 10, 2020</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Lost Prayer to the Sacred Winds</t>
         </is>
       </c>
     </row>
@@ -535,6 +581,11 @@
           <t>November 10, 2020</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Wolf's Gravestone</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -552,6 +603,11 @@
           <t>December 01, 2020</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tartaglia</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -569,28 +625,38 @@
           <t>December 01, 2020</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Memory of Dust</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gentry of Hermitage</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>November 11, 2020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>December 01, 2020</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>December 22, 2020</t>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Skyward Harp</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Gentry of Hermitage</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -601,23 +667,33 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>December 22, 2020</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Zhongli</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Secretum Secretorum</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>December 23, 2020</t>
+          <t>December 01, 2020</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>January 12, 2021</t>
+          <t>December 22, 2020</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Vortex Vanquisher</t>
         </is>
       </c>
     </row>
@@ -629,29 +705,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>December 23, 2020</t>
+          <t>December 01, 2020</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>January 12, 2021</t>
+          <t>December 22, 2020</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>The Unforged</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Adrift in the Harbor</t>
+          <t>Secretum Secretorum</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>December 23, 2020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>January 12, 2021</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>February 02, 2021</t>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Albedo</t>
         </is>
       </c>
     </row>
@@ -663,63 +749,83 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>December 23, 2020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>January 12, 2021</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>February 02, 2021</t>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Summit Shaper</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Invitation to Mundane Life</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>February 03, 2021</t>
+          <t>December 23, 2020</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>February 17, 2021</t>
+          <t>January 12, 2021</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Skyward Atlas</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Adrift in the Harbor</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>February 03, 2021</t>
+          <t>January 12, 2021</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>February 23, 2021</t>
+          <t>February 02, 2021</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Ganyu</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dance of Lanterns</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>February 17, 2021</t>
+          <t>January 12, 2021</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>March 02, 2021</t>
+          <t>February 02, 2021</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Skyward Pride</t>
         </is>
       </c>
     </row>
@@ -731,46 +837,61 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>February 23, 2021</t>
+          <t>January 12, 2021</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>March 16, 2021</t>
+          <t>February 02, 2021</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Amos' Bow</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Moment of Bloom</t>
+          <t>Invitation to Mundane Life</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>March 02, 2021</t>
+          <t>February 03, 2021</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>March 16, 2021</t>
+          <t>February 17, 2021</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Xiao</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ballad in Goblets</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>March 17, 2021</t>
+          <t>February 03, 2021</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>April 06, 2021</t>
+          <t>February 23, 2021</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Primordial Jade Cutter</t>
         </is>
       </c>
     </row>
@@ -782,29 +903,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>March 17, 2021</t>
+          <t>February 03, 2021</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>April 06, 2021</t>
+          <t>February 23, 2021</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Primordial Jade Winged-Spear</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Farewell of Snezhnaya</t>
+          <t>Dance of Lanterns</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>April 06, 2021</t>
+          <t>February 17, 2021</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>April 27, 2021</t>
+          <t>March 02, 2021</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Keqing</t>
         </is>
       </c>
     </row>
@@ -816,63 +947,83 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>April 06, 2021</t>
+          <t>February 23, 2021</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>April 27, 2021</t>
+          <t>March 16, 2021</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Staff of Homa</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Gentry of Hermitage</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>April 28, 2021</t>
+          <t>February 23, 2021</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>May 18, 2021</t>
+          <t>March 16, 2021</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wolf's Gravestone</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Moment of Bloom</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>April 28, 2021</t>
+          <t>March 02, 2021</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>May 18, 2021</t>
+          <t>March 16, 2021</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Hu Tao</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Born of Ocean Swell</t>
+          <t>Ballad in Goblets</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>May 18, 2021</t>
+          <t>March 17, 2021</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>June 08, 2021</t>
+          <t>April 06, 2021</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Venti</t>
         </is>
       </c>
     </row>
@@ -884,63 +1035,83 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>May 18, 2021</t>
+          <t>March 17, 2021</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>June 08, 2021</t>
+          <t>April 06, 2021</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Elegy for the End</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sparkling Steps</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>June 09, 2021</t>
+          <t>March 17, 2021</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>June 29, 2021</t>
+          <t>April 06, 2021</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Skyward Blade</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Farewell of Snezhnaya</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>June 09, 2021</t>
+          <t>April 06, 2021</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>June 29, 2021</t>
+          <t>April 27, 2021</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Tartaglia</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Leaves in the Wind</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>June 29, 2021</t>
+          <t>April 06, 2021</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>July 20, 2021</t>
+          <t>April 27, 2021</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Skyward Harp</t>
         </is>
       </c>
     </row>
@@ -952,80 +1123,105 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>June 29, 2021</t>
+          <t>April 06, 2021</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>July 20, 2021</t>
+          <t>April 27, 2021</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Lost Prayer to the Sacred Winds</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Gentry of Hermitage</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>July 21, 2021</t>
+          <t>April 28, 2021</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>August 10, 2021</t>
+          <t>May 18, 2021</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Zhongli</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>The Heron's Court</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>July 21, 2021</t>
+          <t>April 28, 2021</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>August 10, 2021</t>
+          <t>May 18, 2021</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Summit Shaper</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tapestry of Golden Flames</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>August 10, 2021</t>
+          <t>April 28, 2021</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>August 31, 2021</t>
+          <t>May 18, 2021</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Memory of Dust</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Born of Ocean Swell</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>August 10, 2021</t>
+          <t>May 18, 2021</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>August 31, 2021</t>
+          <t>June 08, 2021</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Eula</t>
         </is>
       </c>
     </row>
@@ -1037,63 +1233,83 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>September 01, 2021</t>
+          <t>May 18, 2021</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>September 21, 2021</t>
+          <t>June 08, 2021</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Song of Broken Pines</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Reign of Serenity</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>September 01, 2021</t>
+          <t>May 18, 2021</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>September 21, 2021</t>
+          <t>June 08, 2021</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Aquila Favonia</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Sparkling Steps</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>September 21, 2021</t>
+          <t>June 09, 2021</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>October 12, 2021</t>
+          <t>June 29, 2021</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Klee</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Drifting Luminescence</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>September 21, 2021</t>
+          <t>June 09, 2021</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>October 12, 2021</t>
+          <t>June 29, 2021</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Skyward Pride</t>
         </is>
       </c>
     </row>
@@ -1105,46 +1321,61 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>October 13, 2021</t>
+          <t>June 09, 2021</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>November 02, 2021</t>
+          <t>June 29, 2021</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Lost Prayer to the Sacred Winds</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Farewell of Snezhnaya</t>
+          <t>Leaves in the Wind</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>October 13, 2021</t>
+          <t>June 29, 2021</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>November 02, 2021</t>
+          <t>July 20, 2021</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Kaedehara Kazuha</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Moment of Bloom</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>November 02, 2021</t>
+          <t>June 29, 2021</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>November 23, 2021</t>
+          <t>July 20, 2021</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Freedom-Sworn</t>
         </is>
       </c>
     </row>
@@ -1156,80 +1387,105 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>November 02, 2021</t>
+          <t>June 29, 2021</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>November 23, 2021</t>
+          <t>July 20, 2021</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Skyward Atlas</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Secretum Secretorum</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>November 24, 2021</t>
+          <t>July 21, 2021</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>December 14, 2021</t>
+          <t>August 10, 2021</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mistsplitter Reforged</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Born of Ocean Swell</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>November 24, 2021</t>
+          <t>July 21, 2021</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>December 14, 2021</t>
+          <t>August 10, 2021</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Skyward Spine</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>The Heron's Court</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>November 24, 2021</t>
+          <t>July 21, 2021</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>December 14, 2021</t>
+          <t>August 10, 2021</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Kamisato Ayaka</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Oni's Royale</t>
+          <t>Tapestry of Golden Flames</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>December 14, 2021</t>
+          <t>August 10, 2021</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>January 04, 2022</t>
+          <t>August 31, 2021</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Yoimiya</t>
         </is>
       </c>
     </row>
@@ -1241,46 +1497,61 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>December 14, 2021</t>
+          <t>August 10, 2021</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>January 04, 2022</t>
+          <t>August 31, 2021</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Thundering Pulse</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>The Transcendent One Returns</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>January 05, 2022</t>
+          <t>August 10, 2021</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>January 25, 2022</t>
+          <t>August 31, 2021</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Skyward Blade</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Invitation to Mundane Life</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>January 05, 2022</t>
+          <t>September 01, 2021</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>January 25, 2022</t>
+          <t>September 21, 2021</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Engulfing Lightning</t>
         </is>
       </c>
     </row>
@@ -1292,46 +1563,61 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>January 05, 2022</t>
+          <t>September 01, 2021</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>January 25, 2022</t>
+          <t>September 21, 2021</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>The Unforged</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Gentry of Hermitage</t>
+          <t>Reign of Serenity</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>January 25, 2022</t>
+          <t>September 01, 2021</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>February 15, 2022</t>
+          <t>September 21, 2021</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Raiden Shogun</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Adrift in the Harbor</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>January 25, 2022</t>
+          <t>September 21, 2021</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>February 15, 2022</t>
+          <t>October 12, 2021</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Everlasting Moonglow</t>
         </is>
       </c>
     </row>
@@ -1343,29 +1629,39 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>January 25, 2022</t>
+          <t>September 21, 2021</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>February 15, 2022</t>
+          <t>October 12, 2021</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Primordial Jade Cutter</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Everbloom Violet</t>
+          <t>Drifting Luminescence</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>February 16, 2022</t>
+          <t>September 21, 2021</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>March 08, 2022</t>
+          <t>October 12, 2021</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Sangonomiya Kokomi</t>
         </is>
       </c>
     </row>
@@ -1377,131 +1673,171 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>February 16, 2022</t>
+          <t>October 13, 2021</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>March 08, 2022</t>
+          <t>November 02, 2021</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Polar Star</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Reign of Serenity</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>March 08, 2022</t>
+          <t>October 13, 2021</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>March 29, 2022</t>
+          <t>November 02, 2021</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Memory of Dust</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Drifting Luminescence</t>
+          <t>Farewell of Snezhnaya</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>March 08, 2022</t>
+          <t>October 13, 2021</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>March 29, 2022</t>
+          <t>November 02, 2021</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Tartaglia</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Moment of Bloom</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>March 08, 2022</t>
+          <t>November 02, 2021</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>March 29, 2022</t>
+          <t>November 23, 2021</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Hu Tao</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Azure Excursion</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>March 30, 2022</t>
+          <t>November 02, 2021</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>April 19, 2022</t>
+          <t>November 23, 2021</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Staff of Homa</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Ballad in Goblets</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>March 30, 2022</t>
+          <t>November 02, 2021</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>April 19, 2022</t>
+          <t>November 23, 2021</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Elegy for the End</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Secretum Secretorum</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>March 30, 2022</t>
+          <t>November 24, 2021</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>April 19, 2022</t>
+          <t>December 14, 2021</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Albedo</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>The Heron's Court</t>
+          <t>Born of Ocean Swell</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>April 19, 2022</t>
+          <t>November 24, 2021</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>May 31, 2022</t>
+          <t>December 14, 2021</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Eula</t>
         </is>
       </c>
     </row>
@@ -1513,46 +1849,61 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>April 19, 2022</t>
+          <t>November 24, 2021</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>May 31, 2022</t>
+          <t>December 14, 2021</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Freedom-Sworn</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Discerner of Enigmas</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>May 31, 2022</t>
+          <t>November 24, 2021</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>June 21, 2022</t>
+          <t>December 14, 2021</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Song of Broken Pines</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Invitation to Mundane Life</t>
+          <t>Oni's Royale</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>May 31, 2022</t>
+          <t>December 14, 2021</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>June 21, 2022</t>
+          <t>January 04, 2022</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Arataki Itto</t>
         </is>
       </c>
     </row>
@@ -1564,80 +1915,105 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>May 31, 2022</t>
+          <t>December 14, 2021</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>June 21, 2022</t>
+          <t>January 04, 2022</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Redhorn Stonethresher</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Oni's Royale</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>June 21, 2022</t>
+          <t>December 14, 2021</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>January 04, 2022</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Skyward Harp</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>The Transcendent One Returns</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>June 21, 2022</t>
+          <t>January 05, 2022</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>January 25, 2022</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Shenhe</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Leaves in the Wind</t>
+          <t>Invitation to Mundane Life</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>January 05, 2022</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>January 25, 2022</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Xiao</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sparkling Steps</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>January 05, 2022</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>January 25, 2022</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Calamity Queller</t>
         </is>
       </c>
     </row>
@@ -1649,182 +2025,237 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>January 05, 2022</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>January 25, 2022</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Primordial Jade Winged-Spear</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Tapestry of Golden Flames</t>
+          <t>Gentry of Hermitage</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>January 25, 2022</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>August 23, 2022</t>
+          <t>February 15, 2022</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Zhongli</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Adrift in the Harbor</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>January 25, 2022</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>August 23, 2022</t>
+          <t>February 15, 2022</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Ganyu</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Viridescent Vigil</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>August 24, 2022</t>
+          <t>January 25, 2022</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>September 09, 2022</t>
+          <t>February 15, 2022</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Vortex Vanquisher</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Gentry of Hermitage</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>August 24, 2022</t>
+          <t>January 25, 2022</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>September 09, 2022</t>
+          <t>February 15, 2022</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Amos' Bow</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Everbloom Violet</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>August 24, 2022</t>
+          <t>February 16, 2022</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>September 09, 2022</t>
+          <t>March 08, 2022</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Yae Miko</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Adrift in the Harbor</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>September 09, 2022</t>
+          <t>February 16, 2022</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>September 27, 2022</t>
+          <t>March 08, 2022</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Kagura's Verity</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Drifting Luminescence</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>September 09, 2022</t>
+          <t>February 16, 2022</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>September 27, 2022</t>
+          <t>March 08, 2022</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Primordial Jade Cutter</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Reign of Serenity</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>September 09, 2022</t>
+          <t>March 08, 2022</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>September 27, 2022</t>
+          <t>March 29, 2022</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Raiden Shogun</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Twilight Arbiter</t>
+          <t>Drifting Luminescence</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>September 28, 2022</t>
+          <t>March 08, 2022</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>October 14, 2022</t>
+          <t>March 29, 2022</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Sangonomiya Kokomi</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ballad in Goblets</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>September 28, 2022</t>
+          <t>March 08, 2022</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>October 14, 2022</t>
+          <t>March 29, 2022</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Engulfing Lightning</t>
         </is>
       </c>
     </row>
@@ -1836,46 +2267,61 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>September 28, 2022</t>
+          <t>March 08, 2022</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>October 14, 2022</t>
+          <t>March 29, 2022</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Everlasting Moonglow</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Twirling Lotus</t>
+          <t>Azure Excursion</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>October 14, 2022</t>
+          <t>March 30, 2022</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>November 01, 2022</t>
+          <t>April 19, 2022</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Kamisato Ayato</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Secretum Secretorum</t>
+          <t>Ballad in Goblets</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>October 14, 2022</t>
+          <t>March 30, 2022</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>November 01, 2022</t>
+          <t>April 19, 2022</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Venti</t>
         </is>
       </c>
     </row>
@@ -1887,46 +2333,61 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>October 14, 2022</t>
+          <t>March 30, 2022</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>November 01, 2022</t>
+          <t>April 19, 2022</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Haran Geppaku Futsu</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>The Moongrass' Enlightenment</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>November 02, 2022</t>
+          <t>March 30, 2022</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>November 18, 2022</t>
+          <t>April 19, 2022</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Elegy for the End</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Tapestry of Golden Flames</t>
+          <t>The Heron's Court</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>November 02, 2022</t>
+          <t>April 19, 2022</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>November 18, 2022</t>
+          <t>May 31, 2022</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Kamisato Ayaka</t>
         </is>
       </c>
     </row>
@@ -1938,199 +2399,259 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>November 02, 2022</t>
+          <t>April 19, 2022</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>November 18, 2022</t>
+          <t>May 31, 2022</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Mistsplitter Reforged</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Everbloom Violet</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>November 18, 2022</t>
+          <t>April 19, 2022</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>December 06, 2022</t>
+          <t>May 31, 2022</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>The Unforged</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Farewell of Snezhnaya</t>
+          <t>Discerner of Enigmas</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>November 18, 2022</t>
+          <t>May 31, 2022</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>December 06, 2022</t>
+          <t>June 21, 2022</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Yelan</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Invitation to Mundane Life</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>November 18, 2022</t>
+          <t>May 31, 2022</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>December 06, 2022</t>
+          <t>June 21, 2022</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Xiao</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>From Ashes Reborn</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>December 07, 2022</t>
+          <t>May 31, 2022</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>December 27, 2022</t>
+          <t>June 21, 2022</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Aqua Simulacra</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Oni's Royale</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>December 07, 2022</t>
+          <t>May 31, 2022</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>December 27, 2022</t>
+          <t>June 21, 2022</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Primordial Jade Winged-Spear</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Oni's Royale</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>December 07, 2022</t>
+          <t>June 21, 2022</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>December 27, 2022</t>
+          <t>July 12, 2022</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Arataki Itto</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Reign of Serenity</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>December 27, 2022</t>
+          <t>June 21, 2022</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>January 17, 2023</t>
+          <t>July 12, 2022</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Redhorn Stonethresher</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Azure Excursion</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>December 27, 2022</t>
+          <t>June 21, 2022</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>January 17, 2023</t>
+          <t>July 12, 2022</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Memory of Dust</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Leaves in the Wind</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>December 27, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>January 17, 2023</t>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Kaedehara Kazuha</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Caution in Confidence</t>
+          <t>Sparkling Steps</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>January 18, 2023</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>February 07, 2023</t>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Klee</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Invitation to Mundane Life</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>January 18, 2023</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>February 07, 2023</t>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Freedom-Sworn</t>
         </is>
       </c>
     </row>
@@ -2142,46 +2663,61 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>January 18, 2023</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>February 07, 2023</t>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Lost Prayer to the Sacred Winds</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Moment of Bloom</t>
+          <t>Tapestry of Golden Flames</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>February 07, 2023</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>February 28, 2023</t>
+          <t>August 23, 2022</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Yoimiya</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Discerner of Enigmas</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>February 07, 2023</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>February 28, 2023</t>
+          <t>August 23, 2022</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Thundering Pulse</t>
         </is>
       </c>
     </row>
@@ -2193,46 +2729,61 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>February 07, 2023</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>February 28, 2023</t>
+          <t>August 23, 2022</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Summit Shaper</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Auric Blaze</t>
+          <t>Viridescent Vigil</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>March 01, 2023</t>
+          <t>August 24, 2022</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>March 21, 2023</t>
+          <t>September 09, 2022</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Tighnari</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Twilight Arbiter</t>
+          <t>Gentry of Hermitage</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>March 01, 2023</t>
+          <t>August 24, 2022</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>March 21, 2023</t>
+          <t>September 09, 2022</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Zhongli</t>
         </is>
       </c>
     </row>
@@ -2244,148 +2795,193 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>March 01, 2023</t>
+          <t>August 24, 2022</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>March 21, 2023</t>
+          <t>September 09, 2022</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Hunter's Path</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>The Transcendent One Returns</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>March 21, 2023</t>
+          <t>August 24, 2022</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>April 11, 2023</t>
+          <t>September 09, 2022</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Vortex Vanquisher</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>The Heron's Court</t>
+          <t>Adrift in the Harbor</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>March 21, 2023</t>
+          <t>September 09, 2022</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>April 11, 2023</t>
+          <t>September 27, 2022</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Ganyu</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Drifting Luminescence</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>March 21, 2023</t>
+          <t>September 09, 2022</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>April 11, 2023</t>
+          <t>September 27, 2022</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Sangonomiya Kokomi</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>The Moongrass' Enlightenment</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>April 12, 2023</t>
+          <t>September 09, 2022</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>May 02, 2023</t>
+          <t>September 27, 2022</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Everlasting Moonglow</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Twirling Lotus</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>April 12, 2023</t>
+          <t>September 09, 2022</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>May 02, 2023</t>
+          <t>September 27, 2022</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Amos' Bow</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Twilight Arbiter</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>April 12, 2023</t>
+          <t>September 28, 2022</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>May 02, 2023</t>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Cyno</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Immaculate Pulse</t>
+          <t>Ballad in Goblets</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>May 02, 2023</t>
+          <t>September 28, 2022</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>May 23, 2023</t>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Venti</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Adrift in the Harbor</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>May 02, 2023</t>
+          <t>September 28, 2022</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>May 23, 2023</t>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Staff of the Scarlet Sands</t>
         </is>
       </c>
     </row>
@@ -2397,46 +2993,61 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>May 02, 2023</t>
+          <t>September 28, 2022</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>May 23, 2023</t>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Elegy for the End</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Tapestry of Golden Flames</t>
+          <t>Twirling Lotus</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>May 24, 2023</t>
+          <t>October 14, 2022</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>June 13, 2023</t>
+          <t>November 01, 2022</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Nilou</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Everbloom Violet</t>
+          <t>Secretum Secretorum</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>May 24, 2023</t>
+          <t>October 14, 2022</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>June 13, 2023</t>
+          <t>November 01, 2022</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Albedo</t>
         </is>
       </c>
     </row>
@@ -2448,148 +3059,193 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>May 24, 2023</t>
+          <t>October 14, 2022</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>June 13, 2023</t>
+          <t>November 01, 2022</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Key of Khaj-Nisut</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Caution in Confidence</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>June 13, 2023</t>
+          <t>October 14, 2022</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>July 04, 2023</t>
+          <t>November 01, 2022</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Primordial Jade Cutter</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Leaves in the Wind</t>
+          <t>The Moongrass' Enlightenment</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>June 13, 2023</t>
+          <t>November 02, 2022</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>July 04, 2023</t>
+          <t>November 18, 2022</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Nahida</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Tapestry of Golden Flames</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>June 13, 2023</t>
+          <t>November 02, 2022</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>July 04, 2023</t>
+          <t>November 18, 2022</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Yoimiya</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Born of Ocean Swell</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>July 05, 2023</t>
+          <t>November 02, 2022</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>July 25, 2023</t>
+          <t>November 18, 2022</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>A Thousand Floating Dreams</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sparkling Steps</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>July 05, 2023</t>
+          <t>November 02, 2022</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>July 25, 2023</t>
+          <t>November 18, 2022</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Thundering Pulse</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Everbloom Violet</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>July 05, 2023</t>
+          <t>November 18, 2022</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>July 25, 2023</t>
+          <t>December 06, 2022</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Yae Miko</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Drifting Luminescence</t>
+          <t>Farewell of Snezhnaya</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>July 25, 2023</t>
+          <t>November 18, 2022</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>August 15, 2023</t>
+          <t>December 06, 2022</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Tartaglia</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>From Ashes Reborn</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>July 25, 2023</t>
+          <t>November 18, 2022</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>August 15, 2023</t>
+          <t>December 06, 2022</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Kagura's Verity</t>
         </is>
       </c>
     </row>
@@ -2601,46 +3257,61 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>July 25, 2023</t>
+          <t>November 18, 2022</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>August 15, 2023</t>
+          <t>December 06, 2022</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Polar Star</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Conjuring Chiaroscuro</t>
+          <t>From Ashes Reborn</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>August 16, 2023</t>
+          <t>December 07, 2022</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>September 05, 2023</t>
+          <t>December 27, 2022</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Wanderer</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Discerner of Enigmas</t>
+          <t>Oni's Royale</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>August 16, 2023</t>
+          <t>December 07, 2022</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>September 05, 2023</t>
+          <t>December 27, 2022</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Arataki Itto</t>
         </is>
       </c>
     </row>
@@ -2652,148 +3323,193 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>August 16, 2023</t>
+          <t>December 07, 2022</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>September 05, 2023</t>
+          <t>December 27, 2022</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Tulaytullah's Remembrance</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Gentry of Hermitage</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>September 05, 2023</t>
+          <t>December 07, 2022</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>September 26, 2023</t>
+          <t>December 27, 2022</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Redhorn Stonethresher</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Farewell of Snezhnaya</t>
+          <t>Reign of Serenity</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>September 05, 2023</t>
+          <t>December 27, 2022</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>September 26, 2023</t>
+          <t>January 17, 2023</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Raiden Shogun</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Azure Excursion</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>September 05, 2023</t>
+          <t>December 27, 2022</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>September 26, 2023</t>
+          <t>January 17, 2023</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Kamisato Ayato</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Decree of the Deeps</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>September 27, 2023</t>
+          <t>December 27, 2022</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>October 17, 2023</t>
+          <t>January 17, 2023</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Engulfing Lightning</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Moment of Bloom</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>September 27, 2023</t>
+          <t>December 27, 2022</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>October 17, 2023</t>
+          <t>January 17, 2023</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Haran Geppaku Futsu</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Caution in Confidence</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>September 27, 2023</t>
+          <t>January 18, 2023</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>October 17, 2023</t>
+          <t>February 07, 2023</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Alhaitham</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Tempestuous Destiny</t>
+          <t>Invitation to Mundane Life</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>October 17, 2023</t>
+          <t>January 18, 2023</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>November 07, 2023</t>
+          <t>February 07, 2023</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Xiao</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Ballad in Goblets</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>October 17, 2023</t>
+          <t>January 18, 2023</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>November 07, 2023</t>
+          <t>February 07, 2023</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Light of Foliar Incision</t>
         </is>
       </c>
     </row>
@@ -2805,46 +3521,61 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>October 17, 2023</t>
+          <t>January 18, 2023</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>November 07, 2023</t>
+          <t>February 07, 2023</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Primordial Jade Winged-Spear</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Chanson of Many Waters</t>
+          <t>Moment of Bloom</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>November 08, 2023</t>
+          <t>February 07, 2023</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>November 28, 2023</t>
+          <t>February 28, 2023</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Hu Tao</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Immaculate Pulse</t>
+          <t>Discerner of Enigmas</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>November 08, 2023</t>
+          <t>February 07, 2023</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>November 28, 2023</t>
+          <t>February 28, 2023</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Yelan</t>
         </is>
       </c>
     </row>
@@ -2856,148 +3587,193 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>November 08, 2023</t>
+          <t>February 07, 2023</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>November 28, 2023</t>
+          <t>February 28, 2023</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Staff of Homa</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Twilight Arbiter</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>November 28, 2023</t>
+          <t>February 07, 2023</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>December 19, 2023</t>
+          <t>February 28, 2023</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Aqua Simulacra</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Azure Excursion</t>
+          <t>Auric Blaze</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>November 28, 2023</t>
+          <t>March 01, 2023</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>December 19, 2023</t>
+          <t>March 21, 2023</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Dehya</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Twilight Arbiter</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>November 28, 2023</t>
+          <t>March 01, 2023</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>December 19, 2023</t>
+          <t>March 21, 2023</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Cyno</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>In the Name of the Rosula</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>December 20, 2023</t>
+          <t>March 01, 2023</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>January 09, 2024</t>
+          <t>March 21, 2023</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Beacon of the Reed Sea</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>The Heron's Court</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>December 20, 2023</t>
+          <t>March 01, 2023</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>January 09, 2024</t>
+          <t>March 21, 2023</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Staff of the Scarlet Sands</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>The Transcendent One Returns</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>December 20, 2023</t>
+          <t>March 21, 2023</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>January 09, 2024</t>
+          <t>April 11, 2023</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Shenhe</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Reign of Serenity</t>
+          <t>The Heron's Court</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>January 09, 2024</t>
+          <t>March 21, 2023</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>January 30, 2024</t>
+          <t>April 11, 2023</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Kamisato Ayaka</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Tapestry of Golden Flames</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>January 09, 2024</t>
+          <t>March 21, 2023</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>January 30, 2024</t>
+          <t>April 11, 2023</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Calamity Queller</t>
         </is>
       </c>
     </row>
@@ -3009,46 +3785,61 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>January 09, 2024</t>
+          <t>March 21, 2023</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>January 30, 2024</t>
+          <t>April 11, 2023</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Mistsplitter Reforged</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>The Crane Soars Skyward</t>
+          <t>The Moongrass' Enlightenment</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>January 31, 2024</t>
+          <t>April 12, 2023</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>February 20, 2024</t>
+          <t>May 02, 2023</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Nahida</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>The Moongrass' Enlightenment</t>
+          <t>Twirling Lotus</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>January 31, 2024</t>
+          <t>April 12, 2023</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>February 20, 2024</t>
+          <t>May 02, 2023</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Nilou</t>
         </is>
       </c>
     </row>
@@ -3060,216 +3851,281 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>January 31, 2024</t>
+          <t>April 12, 2023</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>February 20, 2024</t>
+          <t>May 02, 2023</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>A Thousand Floating Dreams</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Invitation to Mundane Life</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>February 20, 2024</t>
+          <t>April 12, 2023</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>March 12, 2024</t>
+          <t>May 02, 2023</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Key of Khaj-Nisut</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Everbloom Violet</t>
+          <t>Immaculate Pulse</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>February 20, 2024</t>
+          <t>May 02, 2023</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>March 12, 2024</t>
+          <t>May 23, 2023</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Baizhu</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Adrift in the Harbor</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>February 20, 2024</t>
+          <t>May 02, 2023</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>March 12, 2024</t>
+          <t>May 23, 2023</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Ganyu</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Of Silken Clouds Woven</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>March 13, 2024</t>
+          <t>May 02, 2023</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>April 02, 2024</t>
+          <t>May 23, 2023</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Jadefall's Splendor</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Oni's Royale</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>March 13, 2024</t>
+          <t>May 02, 2023</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>April 02, 2024</t>
+          <t>May 23, 2023</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Amos' Bow</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Tapestry of Golden Flames</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>March 13, 2024</t>
+          <t>May 24, 2023</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>April 02, 2024</t>
+          <t>June 13, 2023</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Yoimiya</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Ode to the Dawn Breeze</t>
+          <t>Everbloom Violet</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>March 13, 2024</t>
+          <t>May 24, 2023</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>April 02, 2024</t>
+          <t>June 13, 2023</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Yae Miko</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Decree of the Deeps</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>April 02, 2024</t>
+          <t>May 24, 2023</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>April 23, 2024</t>
+          <t>June 13, 2023</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Thundering Pulse</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Leaves in the Wind</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>April 02, 2024</t>
+          <t>May 24, 2023</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>April 23, 2024</t>
+          <t>June 13, 2023</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Kagura's Verity</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Caution in Confidence</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>April 02, 2024</t>
+          <t>June 13, 2023</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>April 23, 2024</t>
+          <t>July 04, 2023</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Alhaitham</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>The Hearth's Ashen Shadow</t>
+          <t>Leaves in the Wind</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>April 24, 2024</t>
+          <t>June 13, 2023</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>May 14, 2024</t>
+          <t>July 04, 2023</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Kaedehara Kazuha</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Conjuring Chiaroscuro</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>April 24, 2024</t>
+          <t>June 13, 2023</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>May 14, 2024</t>
+          <t>July 04, 2023</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Light of Foliar Incision</t>
         </is>
       </c>
     </row>
@@ -3281,46 +4137,61 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>April 24, 2024</t>
+          <t>June 13, 2023</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>May 14, 2024</t>
+          <t>July 04, 2023</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Freedom-Sworn</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>From Ashes Reborn</t>
+          <t>Born of Ocean Swell</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>May 14, 2024</t>
+          <t>July 05, 2023</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>June 04, 2024</t>
+          <t>July 25, 2023</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Eula</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Immaculate Pulse</t>
+          <t>Sparkling Steps</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>May 14, 2024</t>
+          <t>July 05, 2023</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>June 04, 2024</t>
+          <t>July 25, 2023</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Klee</t>
         </is>
       </c>
     </row>
@@ -3332,148 +4203,193 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>May 14, 2024</t>
+          <t>July 05, 2023</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>June 04, 2024</t>
+          <t>July 25, 2023</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Song of Broken Pines</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Illuminating Lightning</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>June 05, 2024</t>
+          <t>July 05, 2023</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>June 25, 2024</t>
+          <t>July 25, 2023</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Lost Prayer to the Sacred Winds</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Caution in Confidence</t>
+          <t>Drifting Luminescence</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>June 05, 2024</t>
+          <t>July 25, 2023</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>June 25, 2024</t>
+          <t>August 15, 2023</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Sangonomiya Kokomi</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>From Ashes Reborn</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>June 05, 2024</t>
+          <t>July 25, 2023</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>June 25, 2024</t>
+          <t>August 15, 2023</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Wanderer</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Romaritime Meluserenity</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>June 25, 2024</t>
+          <t>July 25, 2023</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>July 16, 2024</t>
+          <t>August 15, 2023</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Everlasting Moonglow</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Chanson of Many Waters</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>June 25, 2024</t>
+          <t>July 25, 2023</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>July 16, 2024</t>
+          <t>August 15, 2023</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Tulaytullah's Remembrance</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Conjuring Chiaroscuro</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>June 25, 2024</t>
+          <t>August 16, 2023</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>July 16, 2024</t>
+          <t>September 05, 2023</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Lyney</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>In the Name of the Rosula</t>
+          <t>Discerner of Enigmas</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>July 17, 2024</t>
+          <t>August 16, 2023</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>August 06, 2024</t>
+          <t>September 05, 2023</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Yelan</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Twirling Lotus</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>July 17, 2024</t>
+          <t>August 16, 2023</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>August 06, 2024</t>
+          <t>September 05, 2023</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>The First Great Magic</t>
         </is>
       </c>
     </row>
@@ -3485,46 +4401,61 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>July 17, 2024</t>
+          <t>August 16, 2023</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>August 06, 2024</t>
+          <t>September 05, 2023</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Aqua Simulacra</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Ambrosial Essence</t>
+          <t>Gentry of Hermitage</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>August 06, 2024</t>
+          <t>September 05, 2023</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>August 27, 2024</t>
+          <t>September 26, 2023</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Zhongli</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Discerner of Enigmas</t>
+          <t>Farewell of Snezhnaya</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>August 06, 2024</t>
+          <t>September 05, 2023</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>August 27, 2024</t>
+          <t>September 26, 2023</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Tartaglia</t>
         </is>
       </c>
     </row>
@@ -3536,148 +4467,193 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>August 06, 2024</t>
+          <t>September 05, 2023</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>August 27, 2024</t>
+          <t>September 26, 2023</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Vortex Vanquisher</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sharktacular Surfari</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>August 28, 2024</t>
+          <t>September 05, 2023</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>September 17, 2024</t>
+          <t>September 26, 2023</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Polar Star</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Leaves in the Wind</t>
+          <t>Decree of the Deeps</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>August 28, 2024</t>
+          <t>September 27, 2023</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>September 17, 2024</t>
+          <t>October 17, 2023</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Neuvillette</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Moment of Bloom</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>August 28, 2024</t>
+          <t>September 27, 2023</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>September 17, 2024</t>
+          <t>October 17, 2023</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Hu Tao</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Seeker of Flame-Wrought Secrets</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>September 17, 2024</t>
+          <t>September 27, 2023</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>October 08, 2024</t>
+          <t>October 17, 2023</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Tome of the Eternal Flow</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Reign of Serenity</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>September 17, 2024</t>
+          <t>September 27, 2023</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>October 08, 2024</t>
+          <t>October 17, 2023</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Staff of Homa</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Tempestuous Destiny</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>September 17, 2024</t>
+          <t>October 17, 2023</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>October 08, 2024</t>
+          <t>November 07, 2023</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Wriothesley</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Forgefire's Blessing</t>
+          <t>Ballad in Goblets</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>October 09, 2024</t>
+          <t>October 17, 2023</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>October 29, 2024</t>
+          <t>November 07, 2023</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Venti</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Of Silken Clouds Woven</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>October 09, 2024</t>
+          <t>October 17, 2023</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>October 29, 2024</t>
+          <t>November 07, 2023</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Cashflow Supervision</t>
         </is>
       </c>
     </row>
@@ -3689,46 +4665,61 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>October 09, 2024</t>
+          <t>October 17, 2023</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>October 29, 2024</t>
+          <t>November 07, 2023</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Elegy for the End</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>The Moongrass' Enlightenment</t>
+          <t>Chanson of Many Waters</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>October 29, 2024</t>
+          <t>November 08, 2023</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 28, 2023</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Furina</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Moment of Bloom</t>
+          <t>Immaculate Pulse</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>October 29, 2024</t>
+          <t>November 08, 2023</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 28, 2023</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Baizhu</t>
         </is>
       </c>
     </row>
@@ -3740,148 +4731,193 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>October 29, 2024</t>
+          <t>November 08, 2023</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 28, 2023</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Splendor of Tranquil Waters</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Piercing Shot's Crimson Wake</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 08, 2023</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>December 10, 2024</t>
+          <t>November 28, 2023</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Jadefall's Splendor</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Conjuring Chiaroscuro</t>
+          <t>Twilight Arbiter</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 28, 2023</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>December 10, 2024</t>
+          <t>December 19, 2023</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Cyno</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Azure Excursion</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 28, 2023</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>December 10, 2024</t>
+          <t>December 19, 2023</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Kamisato Ayato</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Decree of the Deeps</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>December 10, 2024</t>
+          <t>November 28, 2023</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>December 31, 2024</t>
+          <t>December 19, 2023</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Staff of the Scarlet Sands</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Gentry of Hermitage</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>December 10, 2024</t>
+          <t>November 28, 2023</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>December 31, 2024</t>
+          <t>December 19, 2023</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Haran Geppaku Futsu</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>In the Name of the Rosula</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>December 10, 2024</t>
+          <t>December 20, 2023</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>December 31, 2024</t>
+          <t>January 09, 2024</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Navia</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Ancient Flame Ablaze</t>
+          <t>The Heron's Court</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>January 01, 2025</t>
+          <t>December 20, 2023</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>January 21, 2025</t>
+          <t>January 09, 2024</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Kamisato Ayaka</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Starry Night's Whispers</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>January 01, 2025</t>
+          <t>December 20, 2023</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>January 21, 2025</t>
+          <t>January 09, 2024</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Verdict</t>
         </is>
       </c>
     </row>
@@ -3893,46 +4929,61 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>January 01, 2025</t>
+          <t>December 20, 2023</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>January 21, 2025</t>
+          <t>January 09, 2024</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Mistsplitter Reforged</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>The Hearth's Ashen Shadow</t>
+          <t>Reign of Serenity</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>January 21, 2025</t>
+          <t>January 09, 2024</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>February 11, 2025</t>
+          <t>January 30, 2024</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Raiden Shogun</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Illuminating Lightning</t>
+          <t>Tapestry of Golden Flames</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>January 21, 2025</t>
+          <t>January 09, 2024</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>February 11, 2025</t>
+          <t>January 30, 2024</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Yoimiya</t>
         </is>
       </c>
     </row>
@@ -3944,63 +4995,83 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>January 21, 2025</t>
+          <t>January 09, 2024</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>February 11, 2025</t>
+          <t>January 30, 2024</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Engulfing Lightning</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Remembrance of Jade and Stone</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>January 21, 2025</t>
+          <t>January 09, 2024</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>February 11, 2025</t>
+          <t>January 30, 2024</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Thundering Pulse</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Dawn's Drifting Reverie</t>
+          <t>The Crane Soars Skyward</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>February 12, 2025</t>
+          <t>January 31, 2024</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>March 04, 2025</t>
+          <t>February 20, 2024</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Xianyun</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Romaritime Meluserenity</t>
+          <t>The Moongrass' Enlightenment</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>February 12, 2025</t>
+          <t>January 31, 2024</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>March 04, 2025</t>
+          <t>February 20, 2024</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Nahida</t>
         </is>
       </c>
     </row>
@@ -4012,101 +5083,2555 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>February 12, 2025</t>
+          <t>January 31, 2024</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>March 04, 2025</t>
+          <t>February 20, 2024</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Crane's Echoing Call</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Chanson of Many Waters</t>
+          <t>Epitome Invocation</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>March 04, 2025</t>
+          <t>January 31, 2024</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>March 25, 2025</t>
+          <t>February 20, 2024</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>A Thousand Floating Dreams</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Tempestuous Destiny</t>
+          <t>Invitation to Mundane Life</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>March 04, 2025</t>
+          <t>February 20, 2024</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>March 25, 2025</t>
+          <t>March 12, 2024</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Xiao</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Epitome Invocation</t>
+          <t>Everbloom Violet</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>March 04, 2025</t>
+          <t>February 20, 2024</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>March 25, 2025</t>
+          <t>March 12, 2024</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Yae Miko</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Cornucopia of Contention</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="inlineStr"/>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>February 20, 2024</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>March 12, 2024</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Kagura's Verity</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>The Crane Soars Skyward</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr"/>
-      <c r="C217" t="inlineStr"/>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>February 20, 2024</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>March 12, 2024</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Primordial Jade Winged-Spear</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Forgefire's Blessing</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
+          <t>Of Silken Clouds Woven</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Chiori</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
+          <t>Oni's Royale</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Arataki Itto</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Uraku Misugiri</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Redhorn Stonethresher</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Albedo</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Diluc</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Eula</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Jean</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Klee</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Mona</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Aquila Favonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Beacon of the Reed Sea</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Hunter's Path</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Lost Prayer to the Sacred Winds</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Skyward Atlas</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Skyward Blade</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Skyward Harp</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Skyward Pride</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Skyward Spine</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Song of Broken Pines</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Ode to the Dawn Breeze</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>March 13, 2024</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Wolf's Gravestone</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Decree of the Deeps</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>April 23, 2024</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Neuvillette</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Leaves in the Wind</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>April 23, 2024</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Kaedehara Kazuha</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>April 23, 2024</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Tome of the Eternal Flow</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>April 02, 2024</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>April 23, 2024</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Freedom-Sworn</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>The Hearth's Ashen Shadow</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>April 24, 2024</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>May 14, 2024</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Arlecchino</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Conjuring Chiaroscuro</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>April 24, 2024</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>May 14, 2024</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Lyney</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>April 24, 2024</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>May 14, 2024</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Crimson Moon's Semblance</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>April 24, 2024</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>May 14, 2024</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>The First Great Magic</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>From Ashes Reborn</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>May 14, 2024</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>June 04, 2024</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Wanderer</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Immaculate Pulse</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>May 14, 2024</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>June 04, 2024</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Baizhu</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>May 14, 2024</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>June 04, 2024</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Tulaytullah's Remembrance</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>May 14, 2024</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>June 04, 2024</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Jadefall's Splendor</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Illuminating Lightning</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>June 05, 2024</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>June 25, 2024</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Clorinde</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Caution in Confidence</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>June 05, 2024</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>June 25, 2024</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Alhaitham</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>June 05, 2024</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>June 25, 2024</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Absolution</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>June 05, 2024</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>June 25, 2024</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Light of Foliar Incision</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Romaritime Meluserenity</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>June 25, 2024</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>July 16, 2024</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Sigewinne</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Chanson of Many Waters</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>June 25, 2024</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>July 16, 2024</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Furina</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>June 25, 2024</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>July 16, 2024</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Silvershower Heartstrings</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>June 25, 2024</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>July 16, 2024</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Splendor of Tranquil Waters</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>In the Name of the Rosula</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>July 17, 2024</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>August 06, 2024</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Navia</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Twirling Lotus</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>July 17, 2024</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>August 06, 2024</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Nilou</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>July 17, 2024</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>August 06, 2024</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Verdict</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>July 17, 2024</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>August 06, 2024</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Key of Khaj-Nisut</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Ambrosial Essence</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>August 06, 2024</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>August 27, 2024</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Emilie</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Discerner of Enigmas</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>August 06, 2024</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>August 27, 2024</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Yelan</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>August 06, 2024</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>August 27, 2024</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Lumidouce Elegy</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>August 06, 2024</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>August 27, 2024</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Aqua Simulacra</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Sharktacular Surfari</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>August 28, 2024</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>September 17, 2024</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Mualani</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Leaves in the Wind</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>August 28, 2024</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>September 17, 2024</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Kaedehara Kazuha</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>August 28, 2024</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>September 17, 2024</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Surf's Up</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>August 28, 2024</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>September 17, 2024</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Freedom-Sworn</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Seeker of Flame-Wrought Secrets</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>September 17, 2024</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>October 08, 2024</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Kinich</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Reign of Serenity</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>September 17, 2024</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>October 08, 2024</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Raiden Shogun</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>September 17, 2024</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>October 08, 2024</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Fang of the Mountain King</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>September 17, 2024</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>October 08, 2024</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Engulfing Lightning</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Forgefire's Blessing</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>October 09, 2024</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>October 29, 2024</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Xilonen</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Of Silken Clouds Woven</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>October 09, 2024</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>October 29, 2024</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Chiori</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>October 09, 2024</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>October 29, 2024</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Peak Patrol Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>October 09, 2024</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>October 29, 2024</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Uraku Misugiri</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>The Moongrass' Enlightenment</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>October 29, 2024</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>November 19, 2024</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Nahida</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Moment of Bloom</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>October 29, 2024</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>November 19, 2024</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Hu Tao</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>October 29, 2024</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>November 19, 2024</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>A Thousand Floating Dreams</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>October 29, 2024</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>November 19, 2024</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Staff of Homa</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Piercing Shot's Crimson Wake</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>November 20, 2024</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>December 10, 2024</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Chasca</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Conjuring Chiaroscuro</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>November 20, 2024</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>December 10, 2024</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Lyney</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>November 20, 2024</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>December 10, 2024</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Astral Vulture's Crimson Plumage</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>November 20, 2024</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>December 10, 2024</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>The First Great Magic</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Decree of the Deeps</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>December 10, 2024</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>December 31, 2024</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Neuvillette</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Gentry of Hermitage</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>December 10, 2024</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>December 31, 2024</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Zhongli</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>December 10, 2024</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>December 31, 2024</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Tome of the Eternal Flow</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>December 10, 2024</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>December 31, 2024</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Vortex Vanquisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Ancient Flame Ablaze</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>January 01, 2025</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Mavuika</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Starry Night's Whispers</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>January 01, 2025</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Citlali</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>January 01, 2025</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>A Thousand Blazing Suns</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>January 01, 2025</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Starcaller's Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>The Hearth's Ashen Shadow</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Arlecchino</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Illuminating Lightning</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Clorinde</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Crimson Moon's Semblance</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Absolution</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Baizhu</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Shenhe</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Keqing</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Ganyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Qiqi</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Tartaglia</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Xiao</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Primordial Jade Cutter</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Summit Shaper</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>The Unforged</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Calamity Queller</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Primordial Jade Winged-Spear</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Jadefall's Splendor</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Memory of Dust</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Polar Star</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Remembrance of Jade and Stone</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>January 21, 2025</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>February 11, 2025</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Amos' Bow</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Dawn's Drifting Reverie</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>February 12, 2025</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>March 04, 2025</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Yumemizuki Mizuki</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Romaritime Meluserenity</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>February 12, 2025</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>March 04, 2025</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Sigewinne</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>February 12, 2025</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>March 04, 2025</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Sunny Morning Sleep-In</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>February 12, 2025</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>March 04, 2025</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Silvershower Heartstrings</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Chanson of Many Waters</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>March 04, 2025</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>March 25, 2025</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Furina</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Tempestuous Destiny</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>March 04, 2025</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>March 25, 2025</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Wriothesley</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>March 04, 2025</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>March 25, 2025</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Splendor of Tranquil Waters</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>March 04, 2025</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>March 25, 2025</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Cashflow Supervision</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Cornucopia of Contention</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>March 26, 2025</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>April 15, 2025</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Varesa</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>The Crane Soars Skyward</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>March 26, 2025</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>April 15, 2025</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Xianyun</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>March 26, 2025</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>April 15, 2025</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Vivid Notions</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Epitome Invocation</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>March 26, 2025</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>April 15, 2025</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Crane's Echoing Call</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Forgefire's Blessing</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Xilonen</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
           <t>Ballad in Goblets</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr"/>
-      <c r="C219" t="inlineStr"/>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Venti</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
